--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9F348-5849-8444-A899-03A1784DD395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172171E5-51CD-A64A-AA80-550E271CE998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36580" yWindow="1660" windowWidth="26840" windowHeight="15940" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="117">
   <si>
     <t>Activity</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1953,10 +1956,11 @@
         <v>87</v>
       </c>
       <c r="B38" s="5">
-        <v>6.7567567567567557E-2</v>
+        <f>0.0675675675675676/1000</f>
+        <v>6.7567567567567596E-5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>58</v>
@@ -2612,10 +2616,11 @@
         <v>87</v>
       </c>
       <c r="B58" s="5">
-        <v>1.4966952967846994E-2</v>
+        <f>0.014966952967847/1000</f>
+        <v>1.4966952967847001E-5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>58</v>
@@ -3050,10 +3055,11 @@
         <v>87</v>
       </c>
       <c r="B74" s="5">
-        <v>1.8500515112381564E-2</v>
+        <f>0.0185005151123816/1000</f>
+        <v>1.8500515112381598E-5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>58</v>
@@ -3385,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>32</v>
@@ -3544,10 +3550,11 @@
         <v>87</v>
       </c>
       <c r="B91" s="5">
-        <v>1.8555656782929381E-2</v>
+        <f>0.0185556567829294/1000</f>
+        <v>1.8555656782929398E-5</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>58</v>

--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172171E5-51CD-A64A-AA80-550E271CE998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D162A-A2B2-7246-9839-D2307DA9EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36580" yWindow="1660" windowWidth="26840" windowHeight="15940" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
   <sheets>
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="121">
   <si>
     <t>Activity</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t>hydrogen supply, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilogram of hydrogen. The hydrogen is distributed by pipeline over 250 km to the regional storage (Geological cavity) and transported another 250 km to the consumer.  The hydrogen represents the market average for the region. Transmission loss [% output]: 0.0007125%. Regional storage loss [% output]: 0.69.  Arrives at 30 bar of pressure. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
   </si>
 </sst>
 </file>
@@ -798,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -832,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -848,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -959,7 +971,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -968,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
@@ -979,7 +991,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -988,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>6.9143483761158198E-3</v>
@@ -1044,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1201,7 +1213,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -1369,7 +1381,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -1425,7 +1437,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -1481,7 +1493,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1534,836 +1546,888 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.984190731178683E-7</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1.5</v>
+      </c>
+      <c r="M33">
+        <v>1.2</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>1.2</v>
+      </c>
+      <c r="R33">
+        <v>1.05</v>
+      </c>
+      <c r="S33">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>6.9143483761158198E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>-4.9741565516945512</v>
+      </c>
+      <c r="L34">
+        <v>1.5</v>
+      </c>
+      <c r="M34">
+        <v>1.2</v>
+      </c>
+      <c r="N34">
+        <v>1.5</v>
+      </c>
+      <c r="O34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>1.2</v>
+      </c>
+      <c r="R34">
+        <v>1.05</v>
+      </c>
+      <c r="S34">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1.1442208504274044E-6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>-13.680786632565722</v>
+      </c>
+      <c r="L35">
+        <v>1.5</v>
+      </c>
+      <c r="M35">
+        <v>1.2</v>
+      </c>
+      <c r="N35">
+        <v>1.5</v>
+      </c>
+      <c r="O35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>1.2</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>2.0170559863303602E-9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>-20.021626821130827</v>
+      </c>
+      <c r="L36">
+        <v>1.5</v>
+      </c>
+      <c r="M36">
+        <v>1.2</v>
+      </c>
+      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>1.2</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>3.2270310019264991E-11</v>
+      </c>
+      <c r="C37" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2</v>
-      </c>
-      <c r="K33" s="4">
-        <v>-14.735761438090067</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R33" s="4">
-        <v>3</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="7">
-        <v>7.9683814623573661E-7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2</v>
-      </c>
-      <c r="K34" s="4">
-        <v>-14.042614257530122</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M34" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R34" s="4">
-        <v>3</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2</v>
-      </c>
-      <c r="K35" s="4">
-        <v>-7.2170015293497585</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R35" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="9">
-        <v>7.5075075075075066E-3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2</v>
-      </c>
-      <c r="K36" s="4">
-        <v>-4.8918517581062888</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M36" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R36" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3.7537537537536729E-5</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="4">
-        <v>2</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-10.190169124654346</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M37" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N37" s="4">
-        <v>1</v>
-      </c>
-      <c r="O37" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
-        <f>0.0675675675675676/1000</f>
-        <v>6.7567567567567596E-5</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>-24.156873502868216</v>
+      </c>
+      <c r="L37">
+        <v>1.5</v>
+      </c>
+      <c r="M37">
+        <v>1.2</v>
+      </c>
+      <c r="N37">
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>1.2</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0.30207430451283473</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>-1.1970822504372693</v>
+      </c>
+      <c r="L38">
+        <v>1.5</v>
+      </c>
+      <c r="M38">
+        <v>1.2</v>
+      </c>
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>1.2</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1.0291066405763645</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2.8691086638977469E-2</v>
+      </c>
+      <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>1.2</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>1.2</v>
+      </c>
+      <c r="R39">
+        <v>1.05</v>
+      </c>
+      <c r="S39">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>0.64442518296071416</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>-0.43939654873975276</v>
+      </c>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>1.2</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>1.2</v>
+      </c>
+      <c r="R40">
+        <v>1.05</v>
+      </c>
+      <c r="S40">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>0.14302201400538245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>-1.9447567164768222</v>
+      </c>
+      <c r="L41">
+        <v>1.5</v>
+      </c>
+      <c r="M41">
+        <v>1.2</v>
+      </c>
+      <c r="N41">
+        <v>1.5</v>
+      </c>
+      <c r="O41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1.2</v>
+      </c>
+      <c r="R41">
+        <v>1.05</v>
+      </c>
+      <c r="S41">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>6.9143483761158198E-3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F42" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H42" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" s="4">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>-2.6946271807700697</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M38" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
-        <v>6.9444444444444448E-6</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4">
-        <v>-11.877568578558138</v>
-      </c>
-      <c r="L39" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M39" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N39" s="4">
-        <v>1</v>
-      </c>
-      <c r="O39" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R39" s="4">
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>-4.9741565516945512</v>
+      </c>
+      <c r="L42">
         <v>1.5</v>
       </c>
-      <c r="S39" s="4">
-        <v>0.25816898211842121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3.7537537537536729E-5</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>1.2</v>
+      </c>
+      <c r="R42">
+        <v>1.05</v>
+      </c>
+      <c r="S42">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="I51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="7">
-        <v>6.509296454909041E-10</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4">
-        <v>-21.152619551002662</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M51" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R51" s="4">
-        <v>3</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0.57209088006881903</v>
-      </c>
+      <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="7">
-        <v>6.509296454909041E-10</v>
+        <v>92</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2</v>
-      </c>
-      <c r="K52" s="4">
-        <v>-21.152619551002662</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M52" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="O52" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P52" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R52" s="4">
-        <v>3</v>
-      </c>
-      <c r="S52" s="4">
-        <v>0.57209088006881903</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
-        <v>6.509296454909041E-10</v>
+        <v>3.984190731178683E-7</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J53" s="4">
         <v>2</v>
       </c>
       <c r="K53" s="4">
-        <v>-21.152619551002662</v>
+        <v>-14.735761438090067</v>
       </c>
       <c r="L53" s="4">
         <v>1.05</v>
@@ -2392,31 +2456,34 @@
     </row>
     <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B54" s="7">
-        <v>9.4583599412497203E-9</v>
+        <v>7.9683814623573661E-7</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="J54" s="4">
         <v>2</v>
       </c>
       <c r="K54" s="4">
-        <v>-18.476366836645134</v>
+        <v>-14.042614257530122</v>
       </c>
       <c r="L54" s="4">
         <v>1.05</v>
@@ -2437,39 +2504,42 @@
         <v>1.2</v>
       </c>
       <c r="R54" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S54" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B55" s="7">
-        <v>-9.4583599412497203E-9</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>-7.2170015293497585</v>
       </c>
       <c r="L55" s="4">
         <v>1.05</v>
@@ -2490,13 +2560,10 @@
         <v>1.2</v>
       </c>
       <c r="R55" s="4">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="S55" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-      <c r="T55" s="4" t="b">
-        <v>1</v>
+        <v>0.16169679924070957</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2504,12 +2571,12 @@
         <v>1</v>
       </c>
       <c r="B56" s="9">
-        <v>1.6629947742052215E-3</v>
+        <v>7.5075075075075066E-3</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -2528,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="4">
-        <v>-6.399135221166409</v>
+        <v>-4.8918517581062888</v>
       </c>
       <c r="L56" s="4">
         <v>1.05</v>
@@ -2560,12 +2627,12 @@
         <v>1</v>
       </c>
       <c r="B57" s="9">
-        <v>8.31497387102593E-6</v>
+        <v>3.7537537537536729E-5</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -2584,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="4">
-        <v>-11.697452587714467</v>
+        <v>-10.190169124654346</v>
       </c>
       <c r="L57" s="4">
         <v>1.05</v>
@@ -2616,8 +2683,8 @@
         <v>87</v>
       </c>
       <c r="B58" s="5">
-        <f>0.014966952967847/1000</f>
-        <v>1.4966952967847001E-5</v>
+        <f>0.0675675675675676/1000</f>
+        <v>6.7567567567567596E-5</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>116</v>
@@ -2638,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="4">
-        <v>-4.2019106438301899</v>
+        <v>-2.6946271807700697</v>
       </c>
       <c r="L58" s="4">
         <v>1.05</v>
@@ -2723,7 +2790,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9">
-        <v>8.31497387102593E-6</v>
+        <v>3.7537537537536729E-5</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>10</v>
@@ -2750,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2864,7 +2931,7 @@
     </row>
     <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -2884,37 +2951,37 @@
     </row>
     <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B71" s="7">
-        <v>6.2590774062544461E-7</v>
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J71" s="4">
         <v>2</v>
       </c>
       <c r="K71" s="4">
-        <v>-14.284062855900274</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L71" s="4">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="M71" s="8">
         <v>1.2</v>
@@ -2935,39 +3002,39 @@
         <v>3</v>
       </c>
       <c r="S71" s="4">
-        <v>0.57157051623399524</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="9">
-        <v>2.0556127902646181E-3</v>
+        <v>98</v>
+      </c>
+      <c r="B72" s="7">
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J72" s="4">
         <v>2</v>
       </c>
       <c r="K72" s="4">
-        <v>-6.1871812807091953</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L72" s="4">
         <v>1.05</v>
@@ -2988,42 +3055,42 @@
         <v>1.2</v>
       </c>
       <c r="R72" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S72" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="9">
-        <v>1.1511431625481964E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B73" s="7">
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J73" s="4">
         <v>2</v>
       </c>
       <c r="K73" s="4">
-        <v>-11.37216996195022</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L73" s="4">
         <v>1.05</v>
@@ -3044,590 +3111,1251 @@
         <v>1.2</v>
       </c>
       <c r="R73" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S73" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="7">
+        <v>9.4583599412497203E-9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="4">
+        <v>-18.476366836645134</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="7">
+        <v>-9.4583599412497203E-9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R75" s="4">
+        <v>3</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="T75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1.6629947742052215E-3</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>-6.399135221166409</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R76" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S76" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9">
+        <v>8.31497387102593E-6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>-11.697452587714467</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B78" s="5">
+        <f>0.014966952967847/1000</f>
+        <v>1.4966952967847001E-5</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="4">
+        <v>2</v>
+      </c>
+      <c r="K78" s="4">
+        <v>-4.2019106438301899</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M78" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="5">
+        <v>6.9444444444444448E-6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="4">
+        <v>2</v>
+      </c>
+      <c r="K79" s="4">
+        <v>-11.877568578558138</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M79" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0.25816898211842121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="9">
+        <v>8.31497387102593E-6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="7">
+        <v>6.2590774062544461E-7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>-14.284062855900274</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R91" s="4">
+        <v>3</v>
+      </c>
+      <c r="S91" s="4">
+        <v>0.57157051623399524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>2.0556127902646181E-3</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>-6.1871812807091953</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+      <c r="O92" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S92" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1.1511431625481964E-5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>-11.37216996195022</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M93" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1</v>
+      </c>
+      <c r="O93" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R93" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="5">
         <f>0.0185005151123816/1000</f>
         <v>1.8500515112381598E-5</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="4">
-        <v>2</v>
-      </c>
-      <c r="K74" s="4">
+      <c r="J94" s="4">
+        <v>2</v>
+      </c>
+      <c r="K94" s="4">
         <v>-3.9899567033729753</v>
       </c>
-      <c r="L74" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M74" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
-      <c r="O74" s="4">
+      <c r="L94" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M94" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N94" s="4">
+        <v>1</v>
+      </c>
+      <c r="O94" s="4">
         <v>1.01</v>
       </c>
-      <c r="P74" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R74" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S74" s="4">
+      <c r="P94" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R94" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S94" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="95" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B95" s="9">
         <v>1.1511431625481964E-5</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="98" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="99" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="100" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="101" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="102" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    <row r="103" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="2" t="s">
+      <c r="I104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="Q104" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S84" s="2" t="s">
+      <c r="S104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="T104" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="U104" s="2"/>
+    </row>
+    <row r="105" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="106" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B106" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E106" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J86" s="4">
-        <v>2</v>
-      </c>
-      <c r="K86" s="4">
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4">
         <v>-20.669873386184769</v>
       </c>
-      <c r="L86" s="4">
-        <v>1</v>
-      </c>
-      <c r="M86" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N86" s="4">
-        <v>1</v>
-      </c>
-      <c r="O86" s="4">
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N106" s="4">
+        <v>1</v>
+      </c>
+      <c r="O106" s="4">
         <v>1.01</v>
       </c>
-      <c r="P86" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R86" s="4">
+      <c r="P106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R106" s="4">
         <v>3</v>
       </c>
-      <c r="S86" s="4">
+      <c r="S106" s="4">
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="107" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B107" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J87" s="4">
-        <v>2</v>
-      </c>
-      <c r="K87" s="4">
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4">
         <v>-20.669873386184769</v>
       </c>
-      <c r="L87" s="4">
-        <v>1</v>
-      </c>
-      <c r="M87" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N87" s="4">
-        <v>1</v>
-      </c>
-      <c r="O87" s="4">
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+      <c r="O107" s="4">
         <v>1.01</v>
       </c>
-      <c r="P87" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R87" s="4">
+      <c r="P107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R107" s="4">
         <v>3</v>
       </c>
-      <c r="S87" s="4">
+      <c r="S107" s="4">
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+    <row r="108" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B108" s="7">
         <v>1.9594773562773428E-6</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J88" s="4">
-        <v>2</v>
-      </c>
-      <c r="K88" s="4">
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="4">
         <v>-13.142832775241143</v>
       </c>
-      <c r="L88" s="4">
-        <v>1</v>
-      </c>
-      <c r="M88" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N88" s="4">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4">
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N108" s="4">
+        <v>1</v>
+      </c>
+      <c r="O108" s="4">
         <v>1.01</v>
       </c>
-      <c r="P88" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R88" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S88" s="4">
+      <c r="P108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R108" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S108" s="4">
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="9">
+    <row r="109" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="9">
         <v>2.061739642547709E-3</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J89" s="4">
-        <v>2</v>
-      </c>
-      <c r="K89" s="4">
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="4">
         <v>-6.1842051658852499</v>
       </c>
-      <c r="L89" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M89" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N89" s="4">
-        <v>1</v>
-      </c>
-      <c r="O89" s="4">
+      <c r="L109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M109" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N109" s="4">
+        <v>1</v>
+      </c>
+      <c r="O109" s="4">
         <v>1.01</v>
       </c>
-      <c r="P89" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R89" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S89" s="4">
+      <c r="P109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S109" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="9">
+    <row r="110" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E110" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J90" s="4">
-        <v>2</v>
-      </c>
-      <c r="K90" s="4">
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="4">
         <v>-11.369193847126274</v>
       </c>
-      <c r="L90" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M90" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N90" s="4">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
+      <c r="L110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M110" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
+      <c r="O110" s="4">
         <v>1.01</v>
       </c>
-      <c r="P90" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R90" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S90" s="4">
+      <c r="P110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S110" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="111" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B111" s="5">
         <f>0.0185556567829294/1000</f>
         <v>1.8555656782929398E-5</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I111" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J91" s="4">
-        <v>2</v>
-      </c>
-      <c r="K91" s="4">
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="4">
         <v>-3.9869805885490299</v>
       </c>
-      <c r="L91" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M91" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N91" s="4">
-        <v>1</v>
-      </c>
-      <c r="O91" s="4">
+      <c r="L111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N111" s="4">
+        <v>1</v>
+      </c>
+      <c r="O111" s="4">
         <v>1.01</v>
       </c>
-      <c r="P91" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R91" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S91" s="4">
+      <c r="P111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S111" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="112" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B112" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F112" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I112" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M92" s="8"/>
-    </row>
-    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="5"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W93" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
+  <autoFilter ref="A1:W113" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172171E5-51CD-A64A-AA80-550E271CE998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DF0C1-CC93-2C4D-B291-264680790969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36580" yWindow="1660" windowWidth="26840" windowHeight="15940" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
   <sheets>
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
@@ -39,20 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="134">
   <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>hydrogen supply, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>This dataset represents the supply of 1 kilogram of hydrogen. The hydrogen is distributed by pipeline over 250 km to the regional storage (Geological cavity) and transported another 250 km to the consumer.  The hydrogen is produced by  Electrolysis, PEM, with electricity from grid as feedstock. Transmission loss [% output]: 0.0007125%. Regional storage loss [% output]: 0.69.  For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -134,15 +128,9 @@
     <t>production</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
     <t>technosphere</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
     <t>Hydrogen input.</t>
   </si>
   <si>
@@ -390,6 +378,69 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t>hydrogen supply, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilogram of hydrogen. The hydrogen is distributed by pipeline over 250 km to the regional storage (Geological cavity) and transported another 250 km to the consumer.  The hydrogen represents the market average for the region. Transmission loss [% output]: 0.0007125%. Regional storage loss [% output]: 0.69.  Arrives at 30 bar of pressure. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>input type</t>
+  </si>
+  <si>
+    <t>dataset name</t>
+  </si>
+  <si>
+    <t>simapro category</t>
+  </si>
+  <si>
+    <t>Energy/Heat/Synthetic/Transformation</t>
+  </si>
+  <si>
+    <t>CHP heat+elec</t>
+  </si>
+  <si>
+    <t>CHP - heat</t>
+  </si>
+  <si>
+    <t>CHP - elec</t>
+  </si>
+  <si>
+    <t>stationary PEMFC</t>
+  </si>
+  <si>
+    <t>stationary SOFC</t>
+  </si>
+  <si>
+    <t>AEC electrolyzer - grid</t>
+  </si>
+  <si>
+    <t>electricity, residential, by combustion of hydrogen using CHP, allocated by exergy, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilowatt hour of electricity in a residence, by hydrogen combustion in a CHP. The hydrogen is produced by  Electrolysis, PEM, with electricity from grid as feedstock. Electricity conversion efficiency [% LHV input]: 39.4%. LHV [kWh/kg]: 33.3333333333333. Market price [Euro/MJ]: 0.0266666666666667. Synthesis efficiency [% LHV input]: 0%. Total cap. Input-related [kW]: 443.896424167694. CO2 biogenic share [%]: 0%. Power [kW]: 200. Lifetime [years]: 19.5121951219512. Annual operation [hours]: 4100. Allocation factor: 0.916783741498771. On-site storage loss [%]: 0. Use loss [%]: 0.5. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>electricity, from residential heating system</t>
+  </si>
+  <si>
+    <t>electricity, residential, by conversion of hydrogen using fuel cell, PEM, allocated by exergy, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilowatt hour of electricity in a residence, by hydrogen conversion in a fuel cell, PEM. The hydrogen is produced by  Electrolysis, PEM, with electricity from grid as feedstock. Electricity conversion efficiency [% LHV input]: 45%. LHV [kWh/kg]: 33.3333333333333. Market price [Euro/MJ]: 0.0266666666666667. Synthesis efficiency [% LHV input]: 0%. Total cap. Input-related [kW]: 2.73684210526316. CO2 biogenic share [%]: 0%. Power [kW]: 1.6. Lifetime [years]: 4.8780487804878. Annual operation [hours]: 4100. Allocation factor: 0.876663232584123. On-site storage loss [%]: 0. Use loss [%]: 0.56. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>electricity, residential, by conversion of hydrogen using fuel cell, SOFC, allocated by exergy, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilowatt hour of electricity in a residence, by hydrogen conversion in a fuel cell, SOFC. The hydrogen is produced by  Electrolysis, PEM, with electricity from grid as feedstock. Electricity conversion efficiency [% LHV input]: 47%. LHV [kWh/kg]: 33.3333333333333. Market price [Euro/MJ]: 0.0266666666666667. Synthesis efficiency [% LHV input]: 0%. Total cap. Input-related [kW]: 268.75. CO2 biogenic share [%]: 0%. Power [kW]: 90. Lifetime [years]: 19.5121951219512. Annual operation [hours]: 4100. Allocation factor: 0.918355110155111. On-site storage loss [%]: 0. Use loss [%]: 0.56. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
   </si>
 </sst>
 </file>
@@ -798,25 +849,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -824,52 +876,52 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -896,111 +948,111 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1035,28 +1087,28 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>6.9143483761158198E-3</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1091,28 +1143,28 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1.1442208504274044E-6</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1147,28 +1199,28 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>2.0170559863303602E-9</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
         <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1203,28 +1255,28 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>3.2270310019264991E-11</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1259,28 +1311,28 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0.30207430451283473</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1315,28 +1367,28 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B19">
         <v>1.0291066405763645</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1371,28 +1423,28 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>0.64442518296071416</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1427,28 +1479,28 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>0.14302201400538245</v>
       </c>
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1483,25 +1535,25 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>6.9143483761158198E-3</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1539,162 +1591,162 @@
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="I31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="7">
         <v>3.984190731178683E-7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J33" s="4">
         <v>2</v>
@@ -1729,28 +1781,28 @@
     </row>
     <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B34" s="7">
         <v>7.9683814623573661E-7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J34" s="4">
         <v>2</v>
@@ -1785,28 +1837,28 @@
     </row>
     <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7">
         <v>7.3399999999999995E-4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J35" s="4">
         <v>2</v>
@@ -1840,29 +1892,29 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
+      <c r="A36" t="s">
+        <v>113</v>
       </c>
       <c r="B36" s="9">
         <v>7.5075075075075066E-3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J36" s="4">
         <v>2</v>
@@ -1896,29 +1948,29 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>1</v>
+      <c r="A37" t="s">
+        <v>113</v>
       </c>
       <c r="B37" s="9">
         <v>3.7537537537536729E-5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J37" s="4">
         <v>2</v>
@@ -1953,26 +2005,26 @@
     </row>
     <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B38" s="5">
         <f>0.0675675675675676/1000</f>
         <v>6.7567567567567596E-5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J38" s="4">
         <v>2</v>
@@ -2007,25 +2059,25 @@
     </row>
     <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B39" s="5">
         <v>6.9444444444444448E-6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J39" s="4">
         <v>2</v>
@@ -2060,25 +2112,25 @@
     </row>
     <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9">
         <v>3.7537537537536729E-5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M40" s="8"/>
     </row>
@@ -2090,162 +2142,162 @@
         <v>0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="I49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="S49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="T49" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" s="7">
         <v>6.509296454909041E-10</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J51" s="4">
         <v>2</v>
@@ -2280,28 +2332,28 @@
     </row>
     <row r="52" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B52" s="7">
         <v>6.509296454909041E-10</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J52" s="4">
         <v>2</v>
@@ -2336,28 +2388,28 @@
     </row>
     <row r="53" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="7">
         <v>6.509296454909041E-10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J53" s="4">
         <v>2</v>
@@ -2392,25 +2444,25 @@
     </row>
     <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="7">
         <v>9.4583599412497203E-9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J54" s="4">
         <v>2</v>
@@ -2445,31 +2497,31 @@
     </row>
     <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B55" s="7">
         <v>-9.4583599412497203E-9</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J55" s="4">
         <v>1</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L55" s="4">
         <v>1.05</v>
@@ -2500,29 +2552,29 @@
       </c>
     </row>
     <row r="56" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>1</v>
+      <c r="A56" t="s">
+        <v>113</v>
       </c>
       <c r="B56" s="9">
         <v>1.6629947742052215E-3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J56" s="4">
         <v>2</v>
@@ -2556,29 +2608,29 @@
       </c>
     </row>
     <row r="57" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>1</v>
+      <c r="A57" t="s">
+        <v>113</v>
       </c>
       <c r="B57" s="9">
         <v>8.31497387102593E-6</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J57" s="4">
         <v>2</v>
@@ -2613,26 +2665,26 @@
     </row>
     <row r="58" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B58" s="5">
         <f>0.014966952967847/1000</f>
         <v>1.4966952967847001E-5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J58" s="4">
         <v>2</v>
@@ -2667,25 +2719,25 @@
     </row>
     <row r="59" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B59" s="5">
         <v>6.9444444444444448E-6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J59" s="4">
         <v>2</v>
@@ -2720,25 +2772,25 @@
     </row>
     <row r="60" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B60" s="9">
         <v>8.31497387102593E-6</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M60" s="8"/>
     </row>
@@ -2750,162 +2802,162 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="G69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="I69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="T69" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B71" s="7">
         <v>6.2590774062544461E-7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J71" s="4">
         <v>2</v>
@@ -2939,29 +2991,29 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>1</v>
+      <c r="A72" t="s">
+        <v>113</v>
       </c>
       <c r="B72" s="9">
         <v>2.0556127902646181E-3</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>60</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J72" s="4">
         <v>2</v>
@@ -2995,29 +3047,29 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>1</v>
+      <c r="A73" t="s">
+        <v>113</v>
       </c>
       <c r="B73" s="9">
         <v>1.1511431625481964E-5</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>60</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J73" s="4">
         <v>2</v>
@@ -3052,26 +3104,26 @@
     </row>
     <row r="74" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B74" s="5">
         <f>0.0185005151123816/1000</f>
         <v>1.8500515112381598E-5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J74" s="4">
         <v>2</v>
@@ -3106,25 +3158,25 @@
     </row>
     <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B75" s="9">
         <v>1.1511431625481964E-5</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M75" s="8"/>
     </row>
@@ -3136,162 +3188,162 @@
         <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="I84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="Q84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="S84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="T84" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B86" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J86" s="4">
         <v>2</v>
@@ -3326,28 +3378,28 @@
     </row>
     <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B87" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J87" s="4">
         <v>2</v>
@@ -3382,25 +3434,25 @@
     </row>
     <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B88" s="7">
         <v>1.9594773562773428E-6</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J88" s="4">
         <v>2</v>
@@ -3434,29 +3486,29 @@
       </c>
     </row>
     <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>1</v>
+      <c r="A89" t="s">
+        <v>113</v>
       </c>
       <c r="B89" s="9">
         <v>2.061739642547709E-3</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J89" s="4">
         <v>2</v>
@@ -3490,29 +3542,29 @@
       </c>
     </row>
     <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>1</v>
+      <c r="A90" t="s">
+        <v>113</v>
       </c>
       <c r="B90" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>60</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J90" s="4">
         <v>2</v>
@@ -3547,26 +3599,26 @@
     </row>
     <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B91" s="5">
         <f>0.0185556567829294/1000</f>
         <v>1.8555656782929398E-5</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J91" s="4">
         <v>2</v>
@@ -3601,33 +3653,1725 @@
     </row>
     <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B92" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M92" s="8"/>
     </row>
     <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W103" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="7">
+        <v>2.5816375498454966E-8</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L104" s="4">
+        <v>2</v>
+      </c>
+      <c r="M104" s="4">
+        <v>-17.472256837119119</v>
+      </c>
+      <c r="N104" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O104" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P104" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R104" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S104" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T104" s="4">
+        <v>3</v>
+      </c>
+      <c r="U104" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2.5816375498454966E-8</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L105" s="4">
+        <v>2</v>
+      </c>
+      <c r="M105" s="4">
+        <v>-17.472256837119119</v>
+      </c>
+      <c r="N105" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O105" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P105" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R105" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S105" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T105" s="4">
+        <v>3</v>
+      </c>
+      <c r="U105" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="7">
+        <v>2.5816375498454966E-8</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L106" s="4">
+        <v>2</v>
+      </c>
+      <c r="M106" s="4">
+        <v>-17.472256837119119</v>
+      </c>
+      <c r="N106" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O106" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P106" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T106" s="4">
+        <v>3</v>
+      </c>
+      <c r="U106" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="7">
+        <v>1.0420164005875028E-7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L107" s="4">
+        <v>2</v>
+      </c>
+      <c r="M107" s="4">
+        <v>-16.076937968223657</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O107" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P107" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T107" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U107" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="7">
+        <v>-1.0420164005875028E-7</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N108" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O108" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P108" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T108" s="4">
+        <v>3</v>
+      </c>
+      <c r="U108" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="V108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="9">
+        <v>6.9805868642038374E-2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L109" s="4">
+        <v>2</v>
+      </c>
+      <c r="M109" s="4">
+        <v>-2.6620371947819987</v>
+      </c>
+      <c r="N109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O109" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P109" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U109" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="9">
+        <v>3.4902934321018444E-4</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L110" s="4">
+        <v>2</v>
+      </c>
+      <c r="M110" s="4">
+        <v>-7.9603545613300568</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O110" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P110" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U110" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="5">
+        <f>0.628252817778345/1000</f>
+        <v>6.2825281777834498E-4</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L111" s="4">
+        <v>2</v>
+      </c>
+      <c r="M111" s="4">
+        <v>-0.46481261744577906</v>
+      </c>
+      <c r="N111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P111" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U111" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L112" s="4">
+        <v>2</v>
+      </c>
+      <c r="M112" s="4">
+        <v>-10.596634733096073</v>
+      </c>
+      <c r="N112" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O112" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P112" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R112" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S112" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T112" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U112" s="4">
+        <v>0.25816898211842121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="9">
+        <v>3.4902934321018444E-4</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W124" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="7">
+        <v>1.6015962902979168E-5</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L125" s="4">
+        <v>2</v>
+      </c>
+      <c r="M125" s="4">
+        <v>-11.041924651641645</v>
+      </c>
+      <c r="N125" s="4">
+        <v>1</v>
+      </c>
+      <c r="O125" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P125" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R125" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S125" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T125" s="4">
+        <v>3</v>
+      </c>
+      <c r="U125" s="4">
+        <v>0.57157051623399524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="9">
+        <v>5.8444215505608195E-2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L126" s="4">
+        <v>2</v>
+      </c>
+      <c r="M126" s="4">
+        <v>-2.8396825607927414</v>
+      </c>
+      <c r="N126" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O126" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P126" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R126" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S126" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T126" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U126" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="9">
+        <v>3.272876068314088E-4</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L127" s="4">
+        <v>2</v>
+      </c>
+      <c r="M127" s="4">
+        <v>-8.0246712420337651</v>
+      </c>
+      <c r="N127" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O127" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P127" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R127" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S127" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T127" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U127" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="5">
+        <f>0.525997939550474/1000</f>
+        <v>5.2599793955047404E-4</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L128" s="4">
+        <v>2</v>
+      </c>
+      <c r="M128" s="4">
+        <v>-0.64245798345652183</v>
+      </c>
+      <c r="N128" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O128" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P128" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R128" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S128" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T128" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U128" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="9">
+        <v>3.272876068314088E-4</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="5">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W140" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" s="7">
+        <v>4.271419117000515E-8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L141" s="4">
+        <v>2</v>
+      </c>
+      <c r="M141" s="4">
+        <v>-16.968734626024737</v>
+      </c>
+      <c r="N141" s="4">
+        <v>1</v>
+      </c>
+      <c r="O141" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P141" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R141" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S141" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T141" s="4">
+        <v>3</v>
+      </c>
+      <c r="U141" s="4">
+        <v>0.57157051623399524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" s="7">
+        <v>4.271419117000515E-8</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L142" s="4">
+        <v>2</v>
+      </c>
+      <c r="M142" s="4">
+        <v>-16.968734626024737</v>
+      </c>
+      <c r="N142" s="4">
+        <v>1</v>
+      </c>
+      <c r="O142" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R142" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S142" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T142" s="4">
+        <v>3</v>
+      </c>
+      <c r="U142" s="4">
+        <v>0.57157051623399524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" s="7">
+        <v>2.2040522643722658E-5</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L143" s="4">
+        <v>2</v>
+      </c>
+      <c r="M143" s="4">
+        <v>-10.722627860543176</v>
+      </c>
+      <c r="N143" s="4">
+        <v>1</v>
+      </c>
+      <c r="O143" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P143" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R143" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S143" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T143" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U143" s="4">
+        <v>0.15984597228197622</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="9">
+        <v>5.8618411286496426E-2</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L144" s="4">
+        <v>2</v>
+      </c>
+      <c r="M144" s="4">
+        <v>-2.8367064459687961</v>
+      </c>
+      <c r="N144" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O144" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R144" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S144" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T144" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U144" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="9">
+        <v>3.2826310320438289E-4</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>60</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L145" s="4">
+        <v>2</v>
+      </c>
+      <c r="M145" s="4">
+        <v>-8.0216951272098207</v>
+      </c>
+      <c r="N145" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O145" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P145" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R145" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S145" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T145" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U145" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" s="5">
+        <f>0.527565701578468/1000</f>
+        <v>5.2756570157846809E-4</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L146" s="4">
+        <v>2</v>
+      </c>
+      <c r="M146" s="4">
+        <v>-0.63948186863257661</v>
+      </c>
+      <c r="N146" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O146" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P146" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R146" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S146" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T146" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U146" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="9">
+        <v>3.2826310320438289E-4</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W93" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>